--- a/Stats.xlsx
+++ b/Stats.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\Websites\Z1R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8D250EC-075B-4B51-9BBE-E14DBB1430AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3D51FD-1089-4103-8209-E7100CFFA6EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="750" windowWidth="19440" windowHeight="14880" xr2:uid="{5EEC4AF9-A362-42ED-8D68-84E21DB3B32B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="178">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="199">
   <si>
     <t>List of all BR's</t>
   </si>
@@ -83,9 +83,6 @@
     <t>TruantGamer</t>
   </si>
   <si>
-    <t>DarkFalz</t>
-  </si>
-  <si>
     <t>Syscrusher</t>
   </si>
   <si>
@@ -227,9 +224,6 @@
     <t>imasock</t>
   </si>
   <si>
-    <t>bogiesmals</t>
-  </si>
-  <si>
     <t>mrcab</t>
   </si>
   <si>
@@ -570,6 +564,75 @@
   </si>
   <si>
     <t>acekingspade</t>
+  </si>
+  <si>
+    <t>S8</t>
+  </si>
+  <si>
+    <t>pleco</t>
+  </si>
+  <si>
+    <t>diane</t>
+  </si>
+  <si>
+    <t>ramrodius</t>
+  </si>
+  <si>
+    <t>bort</t>
+  </si>
+  <si>
+    <t>fleury</t>
+  </si>
+  <si>
+    <t>ozzsolo</t>
+  </si>
+  <si>
+    <t>lanabean</t>
+  </si>
+  <si>
+    <t>SNESChalmers</t>
+  </si>
+  <si>
+    <t>Iceman_F1</t>
+  </si>
+  <si>
+    <t>cokes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pool float </t>
+  </si>
+  <si>
+    <t>crump79</t>
+  </si>
+  <si>
+    <t>chancemia</t>
+  </si>
+  <si>
+    <t>lumaga</t>
+  </si>
+  <si>
+    <t>Whyforce89887</t>
+  </si>
+  <si>
+    <t>niorifox</t>
+  </si>
+  <si>
+    <t>t0zzle</t>
+  </si>
+  <si>
+    <t>neomagicwarrior</t>
+  </si>
+  <si>
+    <t>enbyzee</t>
+  </si>
+  <si>
+    <t>ganondra1rf</t>
+  </si>
+  <si>
+    <t>bogie</t>
+  </si>
+  <si>
+    <t>malkier</t>
   </si>
 </sst>
 </file>
@@ -921,7 +984,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8AB1EEA-5DE9-4257-A749-844A572DC19B}">
-  <dimension ref="A1:I155"/>
+  <dimension ref="A1:I173"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I34" sqref="I2:I34"/>
@@ -941,7 +1004,7 @@
         <v>1</v>
       </c>
       <c r="H1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -952,13 +1015,13 @@
         <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E2">
         <v>5</v>
       </c>
       <c r="H2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I2">
         <v>2</v>
@@ -972,16 +1035,16 @@
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E3">
         <v>2</v>
       </c>
       <c r="H3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I3">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -992,13 +1055,13 @@
         <v>5</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>175</v>
       </c>
       <c r="E4">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="H4" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -1012,13 +1075,13 @@
         <v>5</v>
       </c>
       <c r="D5" t="s">
-        <v>152</v>
+        <v>31</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1032,13 +1095,13 @@
         <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>19</v>
+        <v>150</v>
       </c>
       <c r="E6">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -1052,13 +1115,13 @@
         <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>82</v>
+        <v>18</v>
       </c>
       <c r="E7">
-        <v>10</v>
+        <v>37</v>
       </c>
       <c r="H7" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I7">
         <v>5</v>
@@ -1066,19 +1129,19 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B8">
         <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>168</v>
+        <v>80</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I8">
         <v>2</v>
@@ -1086,33 +1149,39 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B9">
         <v>13</v>
       </c>
       <c r="D9" t="s">
-        <v>61</v>
+        <v>166</v>
       </c>
       <c r="E9">
         <v>1</v>
       </c>
       <c r="H9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I9">
         <v>3</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>176</v>
+      </c>
+      <c r="B10">
+        <v>5</v>
+      </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>60</v>
       </c>
       <c r="E10">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I10">
         <v>3</v>
@@ -1120,13 +1189,13 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>163</v>
+        <v>35</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I11">
         <v>7</v>
@@ -1134,13 +1203,13 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>9</v>
+        <v>161</v>
       </c>
       <c r="E12">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H12" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I12">
         <v>3</v>
@@ -1152,16 +1221,16 @@
       </c>
       <c r="B13">
         <f>SUM(B2:B12)</f>
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="D13" t="s">
-        <v>166</v>
+        <v>9</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H13" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="I13">
         <v>2</v>
@@ -1169,27 +1238,27 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D14" t="s">
-        <v>76</v>
+        <v>164</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I14">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D15" t="s">
-        <v>134</v>
+        <v>74</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H15" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I15">
         <v>2</v>
@@ -1197,13 +1266,13 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="D16" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="E16">
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I16">
         <v>1</v>
@@ -1211,13 +1280,13 @@
     </row>
     <row r="17" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D17" t="s">
-        <v>115</v>
+        <v>153</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H17" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -1225,13 +1294,13 @@
     </row>
     <row r="18" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
-        <v>71</v>
+        <v>113</v>
       </c>
       <c r="E18">
-        <v>26</v>
+        <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I18">
         <v>6</v>
@@ -1239,13 +1308,13 @@
     </row>
     <row r="19" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D19" t="s">
-        <v>48</v>
+        <v>69</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="H19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -1253,13 +1322,13 @@
     </row>
     <row r="20" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D20" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="E20">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="I20">
         <v>3</v>
@@ -1267,13 +1336,13 @@
     </row>
     <row r="21" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
-        <v>137</v>
+        <v>197</v>
       </c>
       <c r="E21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I21">
         <v>2</v>
@@ -1281,13 +1350,13 @@
     </row>
     <row r="22" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
-        <v>161</v>
+        <v>135</v>
       </c>
       <c r="E22">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -1295,13 +1364,13 @@
     </row>
     <row r="23" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="E23">
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -1309,13 +1378,13 @@
     </row>
     <row r="24" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
-        <v>57</v>
+        <v>159</v>
       </c>
       <c r="E24">
         <v>4</v>
       </c>
       <c r="H24" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -1323,13 +1392,13 @@
     </row>
     <row r="25" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
-        <v>92</v>
+        <v>167</v>
       </c>
       <c r="E25">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="I25">
         <v>2</v>
@@ -1337,13 +1406,13 @@
     </row>
     <row r="26" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
-        <v>149</v>
+        <v>56</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I26">
         <v>1</v>
@@ -1351,41 +1420,41 @@
     </row>
     <row r="27" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="E27">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="H27" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I27">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
-        <v>88</v>
+        <v>147</v>
       </c>
       <c r="E28">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H28" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="I28">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="E29">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="H29" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I29">
         <v>3</v>
@@ -1393,13 +1462,13 @@
     </row>
     <row r="30" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I30">
         <v>3</v>
@@ -1407,13 +1476,13 @@
     </row>
     <row r="31" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
-        <v>83</v>
+        <v>38</v>
       </c>
       <c r="E31">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H31" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -1421,13 +1490,13 @@
     </row>
     <row r="32" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="E32">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="H32" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -1435,27 +1504,27 @@
     </row>
     <row r="33" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
-        <v>141</v>
+        <v>81</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="H33" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I33">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="H34" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="I34">
         <v>1</v>
@@ -1463,63 +1532,63 @@
     </row>
     <row r="35" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="E35">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
       <c r="E36">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
-        <v>58</v>
+        <v>189</v>
       </c>
       <c r="E37">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
-        <v>151</v>
+        <v>10</v>
       </c>
       <c r="E38">
-        <v>4</v>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="E39">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
-        <v>15</v>
+        <v>186</v>
       </c>
       <c r="E40">
-        <v>28</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
-        <v>153</v>
+        <v>57</v>
       </c>
       <c r="E41">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="42" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
-        <v>23</v>
+        <v>188</v>
       </c>
       <c r="E42">
         <v>1</v>
@@ -1527,7 +1596,7 @@
     </row>
     <row r="43" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="E43">
         <v>6</v>
@@ -1535,55 +1604,55 @@
     </row>
     <row r="44" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
-        <v>156</v>
+        <v>58</v>
       </c>
       <c r="E44">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="45" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D45" t="s">
-        <v>65</v>
+        <v>198</v>
       </c>
       <c r="E45">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D46" t="s">
-        <v>69</v>
+        <v>151</v>
       </c>
       <c r="E46">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D47" t="s">
-        <v>98</v>
+        <v>22</v>
       </c>
       <c r="E47">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D48" t="s">
-        <v>74</v>
+        <v>158</v>
       </c>
       <c r="E48">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="49" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D49" t="s">
-        <v>51</v>
+        <v>178</v>
       </c>
       <c r="E49">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="50" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D50" t="s">
-        <v>119</v>
+        <v>154</v>
       </c>
       <c r="E50">
         <v>1</v>
@@ -1591,7 +1660,7 @@
     </row>
     <row r="51" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D51" t="s">
-        <v>157</v>
+        <v>63</v>
       </c>
       <c r="E51">
         <v>2</v>
@@ -1599,23 +1668,23 @@
     </row>
     <row r="52" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D52" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="E52">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D53" t="s">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="E53">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D54" t="s">
-        <v>113</v>
+        <v>72</v>
       </c>
       <c r="E54">
         <v>1</v>
@@ -1623,23 +1692,23 @@
     </row>
     <row r="55" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D55" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E55">
-        <v>22</v>
+        <v>3</v>
       </c>
     </row>
     <row r="56" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D56" t="s">
-        <v>37</v>
+        <v>195</v>
       </c>
       <c r="E56">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D57" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="E57">
         <v>1</v>
@@ -1647,31 +1716,31 @@
     </row>
     <row r="58" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D58" t="s">
-        <v>120</v>
+        <v>155</v>
       </c>
       <c r="E58">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D59" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="E59">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D60" t="s">
-        <v>75</v>
+        <v>26</v>
       </c>
       <c r="E60">
-        <v>3</v>
+        <v>13</v>
       </c>
     </row>
     <row r="61" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D61" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="E61">
         <v>1</v>
@@ -1679,31 +1748,31 @@
     </row>
     <row r="62" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D62" t="s">
-        <v>54</v>
+        <v>181</v>
       </c>
       <c r="E62">
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D63" t="s">
-        <v>114</v>
+        <v>52</v>
       </c>
       <c r="E63">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D64" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="E64">
-        <v>1</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D65" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E65">
         <v>1</v>
@@ -1711,7 +1780,7 @@
     </row>
     <row r="66" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D66" t="s">
-        <v>45</v>
+        <v>118</v>
       </c>
       <c r="E66">
         <v>1</v>
@@ -1719,79 +1788,79 @@
     </row>
     <row r="67" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D67" t="s">
-        <v>35</v>
+        <v>196</v>
       </c>
       <c r="E67">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D68" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="E68">
-        <v>27</v>
+        <v>8</v>
       </c>
     </row>
     <row r="69" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D69" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="E69">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D70" t="s">
-        <v>52</v>
+        <v>174</v>
       </c>
       <c r="E70">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="71" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D71" t="s">
-        <v>11</v>
+        <v>105</v>
       </c>
       <c r="E71">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D72" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="E72">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D73" t="s">
-        <v>91</v>
+        <v>112</v>
       </c>
       <c r="E73">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="74" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D74" t="s">
-        <v>89</v>
+        <v>172</v>
       </c>
       <c r="E74">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D75" t="s">
-        <v>50</v>
+        <v>185</v>
       </c>
       <c r="E75">
-        <v>52</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D76" t="s">
-        <v>116</v>
+        <v>61</v>
       </c>
       <c r="E76">
         <v>1</v>
@@ -1799,7 +1868,7 @@
     </row>
     <row r="77" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D77" t="s">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -1807,7 +1876,7 @@
     </row>
     <row r="78" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D78" t="s">
-        <v>118</v>
+        <v>44</v>
       </c>
       <c r="E78">
         <v>1</v>
@@ -1815,79 +1884,79 @@
     </row>
     <row r="79" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D79" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="E79">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="80" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D80" t="s">
-        <v>66</v>
+        <v>95</v>
       </c>
       <c r="E80">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="81" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D81" t="s">
-        <v>79</v>
+        <v>45</v>
       </c>
       <c r="E81">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="82" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D82" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="E82">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="83" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D83" t="s">
-        <v>138</v>
+        <v>11</v>
       </c>
       <c r="E83">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D84" t="s">
-        <v>164</v>
+        <v>42</v>
       </c>
       <c r="E84">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D85" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="E85">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="86" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D86" t="s">
-        <v>146</v>
+        <v>87</v>
       </c>
       <c r="E86">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="87" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D87" t="s">
-        <v>158</v>
+        <v>49</v>
       </c>
       <c r="E87">
-        <v>1</v>
+        <v>56</v>
       </c>
     </row>
     <row r="88" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D88" t="s">
-        <v>108</v>
+        <v>183</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -1895,23 +1964,23 @@
     </row>
     <row r="89" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D89" t="s">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="E89">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D90" t="s">
-        <v>68</v>
+        <v>115</v>
       </c>
       <c r="E90">
-        <v>37</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D91" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -1919,239 +1988,239 @@
     </row>
     <row r="92" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D92" t="s">
-        <v>172</v>
+        <v>16</v>
       </c>
       <c r="E92">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="93" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D93" t="s">
-        <v>140</v>
+        <v>190</v>
       </c>
       <c r="E93">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D94" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="E94">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="95" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D95" t="s">
-        <v>136</v>
+        <v>77</v>
       </c>
       <c r="E95">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="96" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D96" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="E96">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="97" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D97" t="s">
-        <v>38</v>
+        <v>136</v>
       </c>
       <c r="E97">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="98" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D98" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="E98">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D99" t="s">
-        <v>24</v>
+        <v>108</v>
       </c>
       <c r="E99">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="100" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D100" t="s">
-        <v>13</v>
+        <v>144</v>
       </c>
       <c r="E100">
-        <v>23</v>
+        <v>7</v>
       </c>
     </row>
     <row r="101" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D101" t="s">
-        <v>135</v>
+        <v>156</v>
       </c>
       <c r="E101">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D102" t="s">
-        <v>142</v>
+        <v>106</v>
       </c>
       <c r="E102">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D103" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E103">
-        <v>35</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D104" t="s">
-        <v>167</v>
+        <v>66</v>
       </c>
       <c r="E104">
-        <v>1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="105" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D105" t="s">
-        <v>60</v>
+        <v>119</v>
       </c>
       <c r="E105">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D106" t="s">
-        <v>18</v>
+        <v>194</v>
       </c>
       <c r="E106">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D107" t="s">
-        <v>31</v>
+        <v>170</v>
       </c>
       <c r="E107">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="108" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D108" t="s">
-        <v>99</v>
+        <v>138</v>
       </c>
       <c r="E108">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="109" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D109" t="s">
-        <v>162</v>
+        <v>79</v>
       </c>
       <c r="E109">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="110" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D110" t="s">
-        <v>30</v>
+        <v>192</v>
       </c>
       <c r="E110">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D111" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="E111">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="112" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D112" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
       <c r="E112">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="113" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D113" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="E113">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D114" t="s">
-        <v>28</v>
+        <v>169</v>
       </c>
       <c r="E114">
-        <v>16</v>
+        <v>6</v>
       </c>
     </row>
     <row r="115" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D115" t="s">
-        <v>85</v>
+        <v>23</v>
       </c>
       <c r="E115">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="116" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D116" t="s">
-        <v>78</v>
+        <v>182</v>
       </c>
       <c r="E116">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D117" t="s">
-        <v>100</v>
+        <v>13</v>
       </c>
       <c r="E117">
-        <v>11</v>
+        <v>25</v>
       </c>
     </row>
     <row r="118" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D118" t="s">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="E118">
-        <v>22</v>
+        <v>12</v>
       </c>
     </row>
     <row r="119" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D119" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E119">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="120" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D120" t="s">
-        <v>87</v>
+        <v>177</v>
       </c>
       <c r="E120">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="121" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D121" t="s">
-        <v>104</v>
+        <v>187</v>
       </c>
       <c r="E121">
         <v>1</v>
@@ -2159,63 +2228,63 @@
     </row>
     <row r="122" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D122" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
       <c r="E122">
-        <v>7</v>
+        <v>38</v>
       </c>
     </row>
     <row r="123" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D123" t="s">
-        <v>16</v>
+        <v>165</v>
       </c>
       <c r="E123">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D124" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="E124">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D125" t="s">
-        <v>154</v>
+        <v>17</v>
       </c>
       <c r="E125">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="126" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D126" t="s">
-        <v>22</v>
+        <v>179</v>
       </c>
       <c r="E126">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D127" t="s">
-        <v>77</v>
+        <v>30</v>
       </c>
       <c r="E127">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="128" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D128" t="s">
-        <v>41</v>
+        <v>97</v>
       </c>
       <c r="E128">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D129" t="s">
-        <v>40</v>
+        <v>173</v>
       </c>
       <c r="E129">
         <v>2</v>
@@ -2223,23 +2292,23 @@
     </row>
     <row r="130" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D130" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="E130">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D131" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
       <c r="E131">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="132" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D132" t="s">
-        <v>106</v>
+        <v>145</v>
       </c>
       <c r="E132">
         <v>1</v>
@@ -2247,87 +2316,87 @@
     </row>
     <row r="133" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D133" t="s">
-        <v>26</v>
+        <v>94</v>
       </c>
       <c r="E133">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="134" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D134" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="E134">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D135" t="s">
-        <v>111</v>
+        <v>27</v>
       </c>
       <c r="E135">
-        <v>1</v>
+        <v>17</v>
       </c>
     </row>
     <row r="136" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D136" t="s">
-        <v>165</v>
+        <v>83</v>
       </c>
       <c r="E136">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D137" t="s">
-        <v>42</v>
+        <v>76</v>
       </c>
       <c r="E137">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="138" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D138" t="s">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="E138">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="139" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D139" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E139">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="140" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D140" t="s">
-        <v>105</v>
+        <v>184</v>
       </c>
       <c r="E140">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D141" t="s">
-        <v>95</v>
+        <v>141</v>
       </c>
       <c r="E141">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="142" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D142" t="s">
-        <v>122</v>
+        <v>102</v>
       </c>
       <c r="E142">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D143" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="E143">
         <v>7</v>
@@ -2335,47 +2404,47 @@
     </row>
     <row r="144" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D144" t="s">
-        <v>94</v>
+        <v>15</v>
       </c>
       <c r="E144">
-        <v>1</v>
+        <v>19</v>
       </c>
     </row>
     <row r="145" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D145" t="s">
-        <v>29</v>
+        <v>193</v>
       </c>
       <c r="E145">
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D146" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="E146">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="147" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D147" t="s">
-        <v>102</v>
+        <v>152</v>
       </c>
       <c r="E147">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="148" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D148" t="s">
-        <v>145</v>
+        <v>21</v>
       </c>
       <c r="E148">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="149" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D149" t="s">
-        <v>49</v>
+        <v>75</v>
       </c>
       <c r="E149">
         <v>2</v>
@@ -2383,31 +2452,39 @@
     </row>
     <row r="150" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D150" t="s">
-        <v>73</v>
+        <v>40</v>
       </c>
       <c r="E150">
-        <v>3</v>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="151" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D151" t="s">
+        <v>39</v>
+      </c>
+      <c r="E151">
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D152" t="s">
-        <v>174</v>
+        <v>146</v>
       </c>
       <c r="E152">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="153" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D153" t="s">
-        <v>175</v>
+        <v>20</v>
       </c>
       <c r="E153">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D154" t="s">
-        <v>176</v>
+        <v>104</v>
       </c>
       <c r="E154">
         <v>1</v>
@@ -2415,15 +2492,159 @@
     </row>
     <row r="155" spans="4:5" x14ac:dyDescent="0.25">
       <c r="D155" t="s">
-        <v>177</v>
+        <v>25</v>
       </c>
       <c r="E155">
-        <v>1</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="156" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D156" t="s">
+        <v>78</v>
+      </c>
+      <c r="E156">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D157" t="s">
+        <v>109</v>
+      </c>
+      <c r="E157">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D158" t="s">
+        <v>163</v>
+      </c>
+      <c r="E158">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="159" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D159" t="s">
+        <v>41</v>
+      </c>
+      <c r="E159">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="160" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D160" t="s">
+        <v>14</v>
+      </c>
+      <c r="E160">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="161" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D161" t="s">
+        <v>84</v>
+      </c>
+      <c r="E161">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="162" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D162" t="s">
+        <v>103</v>
+      </c>
+      <c r="E162">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="163" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D163" t="s">
+        <v>93</v>
+      </c>
+      <c r="E163">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="164" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D164" t="s">
+        <v>120</v>
+      </c>
+      <c r="E164">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="165" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D165" t="s">
+        <v>99</v>
+      </c>
+      <c r="E165">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="166" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D166" t="s">
+        <v>92</v>
+      </c>
+      <c r="E166">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="167" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D167" t="s">
+        <v>191</v>
+      </c>
+      <c r="E167">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="168" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D168" t="s">
+        <v>28</v>
+      </c>
+      <c r="E168">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="169" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D169" t="s">
+        <v>54</v>
+      </c>
+      <c r="E169">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="170" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D170" t="s">
+        <v>100</v>
+      </c>
+      <c r="E170">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="171" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D171" t="s">
+        <v>143</v>
+      </c>
+      <c r="E171">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="172" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D172" t="s">
+        <v>48</v>
+      </c>
+      <c r="E172">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="173" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D173" t="s">
+        <v>71</v>
+      </c>
+      <c r="E173">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:E150">
-    <sortCondition ref="D2:D150"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="D2:E174">
+    <sortCondition ref="D2:D174"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Stats.xlsx
+++ b/Stats.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\Websites\Z1R\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E3D51FD-1089-4103-8209-E7100CFFA6EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3BDAF48-EAAB-44C4-B954-1680568A5076}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-19320" yWindow="750" windowWidth="19440" windowHeight="14880" xr2:uid="{5EEC4AF9-A362-42ED-8D68-84E21DB3B32B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="200">
   <si>
     <t>List of all BR's</t>
   </si>
@@ -633,6 +633,9 @@
   </si>
   <si>
     <t>malkier</t>
+  </si>
+  <si>
+    <t>heccinhayley</t>
   </si>
 </sst>
 </file>
@@ -984,10 +987,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8AB1EEA-5DE9-4257-A749-844A572DC19B}">
-  <dimension ref="A1:I173"/>
+  <dimension ref="A1:I175"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I34" sqref="I2:I34"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1172,7 +1175,7 @@
         <v>176</v>
       </c>
       <c r="B10">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D10" t="s">
         <v>60</v>
@@ -1221,7 +1224,7 @@
       </c>
       <c r="B13">
         <f>SUM(B2:B12)</f>
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
@@ -1545,6 +1548,12 @@
       <c r="E36">
         <v>1</v>
       </c>
+      <c r="H36" t="s">
+        <v>174</v>
+      </c>
+      <c r="I36">
+        <v>1</v>
+      </c>
     </row>
     <row r="37" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
@@ -1575,7 +1584,7 @@
         <v>186</v>
       </c>
       <c r="E40">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="4:9" x14ac:dyDescent="0.25">
@@ -1583,7 +1592,7 @@
         <v>57</v>
       </c>
       <c r="E41">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="4:9" x14ac:dyDescent="0.25">
@@ -1591,7 +1600,7 @@
         <v>188</v>
       </c>
       <c r="E42">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="4:9" x14ac:dyDescent="0.25">
@@ -1599,7 +1608,7 @@
         <v>149</v>
       </c>
       <c r="E43">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="44" spans="4:9" x14ac:dyDescent="0.25">
@@ -1615,7 +1624,7 @@
         <v>198</v>
       </c>
       <c r="E45">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46" spans="4:9" x14ac:dyDescent="0.25">
@@ -1639,7 +1648,7 @@
         <v>158</v>
       </c>
       <c r="E48">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="49" spans="4:5" x14ac:dyDescent="0.25">
@@ -1815,7 +1824,7 @@
         <v>174</v>
       </c>
       <c r="E70">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="4:5" x14ac:dyDescent="0.25">
@@ -1895,7 +1904,7 @@
         <v>95</v>
       </c>
       <c r="E80">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="81" spans="4:5" x14ac:dyDescent="0.25">
@@ -1903,7 +1912,7 @@
         <v>45</v>
       </c>
       <c r="E81">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="82" spans="4:5" x14ac:dyDescent="0.25">
@@ -1951,7 +1960,7 @@
         <v>49</v>
       </c>
       <c r="E87">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="88" spans="4:5" x14ac:dyDescent="0.25">
@@ -2055,7 +2064,7 @@
         <v>144</v>
       </c>
       <c r="E100">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101" spans="4:5" x14ac:dyDescent="0.25">
@@ -2223,7 +2232,7 @@
         <v>187</v>
       </c>
       <c r="E121">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="122" spans="4:5" x14ac:dyDescent="0.25">
@@ -2231,7 +2240,7 @@
         <v>68</v>
       </c>
       <c r="E122">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="123" spans="4:5" x14ac:dyDescent="0.25">
@@ -2383,7 +2392,7 @@
         <v>141</v>
       </c>
       <c r="E141">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="142" spans="4:5" x14ac:dyDescent="0.25">
@@ -2559,7 +2568,7 @@
         <v>93</v>
       </c>
       <c r="E163">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="164" spans="4:5" x14ac:dyDescent="0.25">
@@ -2583,7 +2592,7 @@
         <v>92</v>
       </c>
       <c r="E166">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="167" spans="4:5" x14ac:dyDescent="0.25">
@@ -2640,6 +2649,14 @@
       </c>
       <c r="E173">
         <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D175" t="s">
+        <v>199</v>
+      </c>
+      <c r="E175">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
